--- a/Long-distance Triathlon – „The Bike Split_ Pacing for competitive Age-Groupers and for Pros!“.xlsx
+++ b/Long-distance Triathlon – „The Bike Split_ Pacing for competitive Age-Groupers and for Pros!“.xlsx
@@ -865,12 +865,12 @@
       <selection activeCell="E2" sqref="E2" pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.43"/>
-    <col customWidth="1" min="2" max="2" width="10.0"/>
-    <col customWidth="1" min="3" max="3" width="38.43"/>
-    <col customWidth="1" min="4" max="23" width="13.71"/>
+    <col customWidth="1" min="1" max="1" width="21.38"/>
+    <col customWidth="1" min="2" max="2" width="8.75"/>
+    <col customWidth="1" min="3" max="3" width="33.63"/>
+    <col customWidth="1" min="4" max="23" width="12.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.75" customHeight="1">
@@ -1863,7 +1863,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="37">
-        <f>J5/(((HOUR(B14)*60*60)+(MINUTE(B14)*60)+SECOND(B14))/3600)</f>
+        <f>SUM(D2:W2)/(((HOUR(B14)*60*60)+(MINUTE(B14)*60)+SECOND(B14))/3600)</f>
         <v>44.08365438</v>
       </c>
       <c r="C15" s="35"/>
@@ -2026,11 +2026,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.86"/>
-    <col customWidth="1" min="2" max="2" width="11.29"/>
-    <col customWidth="1" min="3" max="21" width="12.71"/>
+    <col customWidth="1" min="1" max="1" width="19.13"/>
+    <col customWidth="1" min="2" max="2" width="9.88"/>
+    <col customWidth="1" min="3" max="21" width="11.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -5239,11 +5239,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.71"/>
-    <col customWidth="1" min="2" max="2" width="9.86"/>
-    <col customWidth="1" min="3" max="3" width="12.71"/>
+    <col customWidth="1" min="1" max="1" width="22.5"/>
+    <col customWidth="1" min="2" max="2" width="8.63"/>
+    <col customWidth="1" min="3" max="3" width="11.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.75" customHeight="1">
